--- a/2nd gen - 8 bit cpu/VGA output resolutions.xlsx
+++ b/2nd gen - 8 bit cpu/VGA output resolutions.xlsx
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,23 +448,23 @@
         <v>512</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">A3/$C$1</f>
+        <f t="shared" ref="B3:B12" si="0">A3/$C$1</f>
         <v>384</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="1">A3*B3</f>
+        <f t="shared" ref="D3:D12" si="1">A3*B3</f>
         <v>196608</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="2">(D3*6)/8</f>
+        <f t="shared" ref="F3:F12" si="2">(D3*6)/8</f>
         <v>147456</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="3">A3/6</f>
+        <f t="shared" ref="H3:H12" si="3">A3/6</f>
         <v>85.333333333333329</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I11" si="4">B3/8</f>
+        <f t="shared" ref="I3:I12" si="4">B3/8</f>
         <v>48</v>
       </c>
     </row>
@@ -595,75 +595,100 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>27648</v>
+        <v>156</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>32448</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>20736</v>
+        <v>24336</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>24300</v>
+        <v>144</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>27648</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>18225</v>
+        <v>20736</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>16.875</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>180</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>24300</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>18225</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>164</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>20172</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="2"/>
         <v>15129</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <f t="shared" si="3"/>
         <v>27.333333333333332</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <f t="shared" si="4"/>
         <v>15.375</v>
       </c>
